--- a/biology/Zoologie/Colonus_alineae/Colonus_alineae.xlsx
+++ b/biology/Zoologie/Colonus_alineae/Colonus_alineae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colonus alineae est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colonus alineae est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Brésil au Minas Gerais, en Espírito Santo, dans l'État de Rio de Janeiro, dans l'État de São Paulo, au Mato Grosso do Sul, au Santa Catarina et au Rio Grande do Sul et en Argentine dans la province de Misiones[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Brésil au Minas Gerais, en Espírito Santo, dans l'État de Rio de Janeiro, dans l'État de São Paulo, au Mato Grosso do Sul, au Santa Catarina et au Rio Grande do Sul et en Argentine dans la province de Misiones,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 7,3 mm et la femelle paratype 7,3 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 7,3 mm et la femelle paratype 7,3 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Rubio, Stolar, Baigorria et Baptista en 2023.
 </t>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Aline Pires de Melo Nogueira[2]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Aline Pires de Melo Nogueira. 
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Rubio, Stolar, Baigorria &amp; Baptista, 2023 : « Description of two new species of jumping spider Colonus F. O. Pickard-Cambridge, 1901 (Araneae: Salticidae) from Brazil and Argentina. » Faunitaxys, vol. 11, no 58, p. 1-10.</t>
         </is>
